--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1284,7 +1284,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D28" s="17" t="inlineStr"/>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
           <t>KRISTEN</t>
@@ -1384,7 +1388,11 @@
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
-      <c r="D32" s="17" t="inlineStr"/>
+      <c r="D32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E32" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1480,7 +1488,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G35" s="11" t="inlineStr"/>
+      <c r="G35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -799,7 +799,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D9" s="17" t="inlineStr"/>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -921,7 +925,7 @@
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F14" s="16" t="inlineStr">
@@ -1237,7 +1241,7 @@
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F26" s="16" t="inlineStr">
@@ -1291,7 +1295,7 @@
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F28" s="16" t="inlineStr">
@@ -1530,7 +1534,7 @@
       </c>
       <c r="E37" s="11" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F37" s="16" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -815,7 +815,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr"/>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -1528,10 +1532,26 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
-      <c r="D36" s="17" t="inlineStr"/>
-      <c r="E36" s="11" t="inlineStr"/>
-      <c r="F36" s="17" t="inlineStr"/>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G36" s="11" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -710,7 +710,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F5" s="17" t="inlineStr"/>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G5" s="11" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
@@ -878,7 +882,11 @@
       </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="17" t="inlineStr"/>
-      <c r="E12" s="11" t="inlineStr"/>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F12" s="17" t="inlineStr"/>
       <c r="G12" s="11" t="inlineStr"/>
     </row>
@@ -1082,7 +1090,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr"/>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F20" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1119,7 +1131,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G21" s="11" t="inlineStr"/>
+      <c r="G21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1498,7 +1498,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1580,7 +1584,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G36" s="11" t="inlineStr"/>
+      <c r="G36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -950,7 +950,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr"/>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -1074,7 +1078,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="17" t="inlineStr"/>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1294,7 +1302,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G26" s="11" t="inlineStr"/>
+      <c r="G26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -1518,7 +1530,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G34" s="11" t="inlineStr"/>
+      <c r="G34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1001,7 +1001,11 @@
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
-      <c r="D16" s="17" t="inlineStr"/>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E16" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1499,7 +1503,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G33" s="11" t="inlineStr"/>
+      <c r="G33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -657,7 +657,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr"/>
+      <c r="G3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -913,13 +917,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr"/>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G13" s="11" t="inlineStr"/>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -1124,7 +1136,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G20" s="11" t="inlineStr"/>
+      <c r="G20" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -719,7 +719,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr"/>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -777,7 +781,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr"/>
+      <c r="G7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -1104,8 +1112,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F19" s="17" t="inlineStr"/>
-      <c r="G19" s="11" t="inlineStr"/>
+      <c r="F19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -1256,7 +1272,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G24" s="11" t="inlineStr"/>
+      <c r="G24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -1465,7 +1485,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G31" s="11" t="inlineStr"/>
+      <c r="G31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1086,7 +1086,11 @@
         </is>
       </c>
       <c r="F18" s="17" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr"/>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -672,7 +672,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -688,7 +692,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr"/>
+      <c r="G4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -734,7 +742,11 @@
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr"/>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D6" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1085,7 +1097,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F18" s="17" t="inlineStr"/>
+      <c r="F18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G18" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -809,9 +809,21 @@
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr"/>
-      <c r="D8" s="17" t="inlineStr"/>
-      <c r="E8" s="11" t="inlineStr"/>
-      <c r="F8" s="17" t="inlineStr"/>
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G8" s="11" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
@@ -1397,7 +1409,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G27" s="11" t="inlineStr"/>
+      <c r="G27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1479,7 +1479,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D30" s="17" t="inlineStr"/>
+      <c r="D30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E30" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1490,7 +1494,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G30" s="11" t="inlineStr"/>
+      <c r="G30" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:G37"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1234,7 +1234,11 @@
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D22" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1072,7 +1072,11 @@
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="17" t="inlineStr"/>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E17" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-6 (30 Agustus 2021 - 5 September 2021).xlsx
@@ -1071,7 +1071,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1087,7 +1091,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G17" s="11" t="inlineStr"/>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
